--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ443.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ443.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6B4B5E-43A9-42CB-9B40-02067926260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -354,10 +355,6 @@
     <t>CustId= , AND ApplyDate=</t>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -501,12 +498,18 @@
   <si>
     <t>custRcEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -733,7 +736,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -824,6 +827,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -859,6 +879,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,11 +1071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1085,10 +1122,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1112,7 +1149,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
@@ -1125,7 +1162,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1151,7 +1188,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1164,7 +1201,7 @@
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -1173,11 +1210,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="11"/>
@@ -1207,12 +1244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
@@ -1225,7 +1262,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1233,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -1252,20 +1289,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="15">
         <v>3</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1276,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>33</v>
@@ -1292,20 +1329,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="15">
         <v>3</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,20 +1350,20 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="15">
         <v>3</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1347,7 +1384,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1355,20 +1392,20 @@
         <v>8</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="15">
         <v>50</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1382,14 +1419,14 @@
         <v>43</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1397,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>44</v>
@@ -1435,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>46</v>
@@ -1492,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>49</v>
@@ -1511,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>50</v>
@@ -1549,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>52</v>
@@ -1568,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>53</v>
@@ -1600,7 +1637,7 @@
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1627,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>56</v>
@@ -1665,10 +1702,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>19</v>
@@ -2251,16 +2288,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2269,10 +2306,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -2298,7 +2335,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -2309,7 +2346,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -2320,7 +2357,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
@@ -2331,32 +2368,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
